--- a/Regression Results/model_2_results.xlsx
+++ b/Regression Results/model_2_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,16 @@
           <t>Beta HML</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Adjusted R2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -485,13 +495,13 @@
         <v>0.006113937396154249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.407212215133226</v>
+        <v>0.4847547169117808</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.833624168203715</v>
+        <v>0.6986757104210642</v>
       </c>
       <c r="F2" t="n">
         <v>0.101478475355686</v>
@@ -501,6 +511,12 @@
       </c>
       <c r="H2" t="n">
         <v>-0.5553812122387346</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.004598563622157524</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1189339105006265</v>
       </c>
     </row>
     <row r="3">
@@ -513,13 +529,13 @@
         <v>0.006361319705340138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4380533481594323</v>
+        <v>0.4964198355513971</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7797593974993066</v>
+        <v>0.6801336561869071</v>
       </c>
       <c r="F3" t="n">
         <v>-0.0199454801488583</v>
@@ -529,6 +545,12 @@
       </c>
       <c r="H3" t="n">
         <v>0.8112851524653277</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.003949309491163033</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1518558948927919</v>
       </c>
     </row>
     <row r="4">
@@ -541,13 +563,13 @@
         <v>-0.01949156924082961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04082789827170454</v>
+        <v>0.09464160838125377</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.082215920473665</v>
+        <v>-1.671405509699841</v>
       </c>
       <c r="F4" t="n">
         <v>0.2006400724892564</v>
@@ -557,6 +579,12 @@
       </c>
       <c r="H4" t="n">
         <v>1.081499058324975</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01570082964427109</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3354477810839157</v>
       </c>
     </row>
     <row r="5">
@@ -569,13 +597,13 @@
         <v>-0.004432129777568192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6654538203433815</v>
+        <v>0.6170892749780951</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4341585782820503</v>
+        <v>-0.499979836903159</v>
       </c>
       <c r="F5" t="n">
         <v>-0.2008501966914694</v>
@@ -585,6 +613,12 @@
       </c>
       <c r="H5" t="n">
         <v>-0.1348210876424941</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.006475692414618974</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1969900145097194</v>
       </c>
     </row>
     <row r="6">
@@ -597,13 +631,13 @@
         <v>0.05304334103856471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01228443202459824</v>
+        <v>0.1994279935708438</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.567694768587433</v>
+        <v>1.28318293385164</v>
       </c>
       <c r="F6" t="n">
         <v>-0.3180766181199169</v>
@@ -613,6 +647,12 @@
       </c>
       <c r="H6" t="n">
         <v>-1.359356745890398</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.03991517995090906</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2188846263134701</v>
       </c>
     </row>
     <row r="7">
@@ -625,13 +665,13 @@
         <v>-0.005929961518966359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2571416726721597</v>
+        <v>0.3432046942032331</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.142107502398593</v>
+        <v>-0.9478522153205311</v>
       </c>
       <c r="F7" t="n">
         <v>-0.05904858841322756</v>
@@ -641,6 +681,12 @@
       </c>
       <c r="H7" t="n">
         <v>0.3456744402474137</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.006393198039684209</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1524569349572032</v>
       </c>
     </row>
   </sheetData>
